--- a/outputs-GTDB-r202/g__Blautia_A.xlsx
+++ b/outputs-GTDB-r202/g__Blautia_A.xlsx
@@ -824,7 +824,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>s__Blautia_A caecimuris</t>
+          <t>s__Blautia_A caecimuris(reject)</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>s__Blautia_A sp000436615</t>
+          <t>s__Blautia_A sp000436615(reject)</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>s__Blautia_A caecimuris</t>
+          <t>s__Blautia_A caecimuris(reject)</t>
         </is>
       </c>
     </row>
